--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-3714-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-3714-top-by-haul.xlsx
@@ -50,7 +50,7 @@
     <t>Бауыржан80</t>
   </si>
   <si>
-    <t>94 ч. 2 мин. 47 сек.</t>
+    <t>94 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -104,7 +104,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>39 ч. 8 мин. 56 сек.</t>
+    <t>39 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -113,7 +113,7 @@
     <t>zpslon</t>
   </si>
   <si>
-    <t>37 ч. 53 мин. 4 сек.</t>
+    <t>37 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -122,7 +122,7 @@
     <t>Rightwheel</t>
   </si>
   <si>
-    <t>37 ч. 1 мин. 46 сек.</t>
+    <t>37 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>33 ч. 27 мин. 6 сек.</t>
+    <t>33 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>vlad200</t>
   </si>
   <si>
-    <t>31 ч. 8 мин. 44 сек.</t>
+    <t>31 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -149,7 +149,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>30 ч. 50 мин. 1 сек.</t>
+    <t>30 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -158,7 +158,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>30 ч. 7 мин. 1 сек.</t>
+    <t>30 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -167,7 +167,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>27 ч. 51 мин. 0 сек.</t>
+    <t>27 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -185,7 +185,7 @@
     <t>Уклюжий</t>
   </si>
   <si>
-    <t>26 ч. 36 мин. 0 сек.</t>
+    <t>26 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -248,7 +248,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>22 ч. 18 мин. 3 сек.</t>
+    <t>22 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -257,7 +257,7 @@
     <t>Ильк</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 31 сек.</t>
+    <t>22 ч. 08 мин. 31 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -356,7 +356,7 @@
     <t>bolt25</t>
   </si>
   <si>
-    <t>19 ч. 0 мин. 44 сек.</t>
+    <t>19 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -383,7 +383,7 @@
     <t>Oble</t>
   </si>
   <si>
-    <t>17 ч. 30 мин. 3 сек.</t>
+    <t>17 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -410,7 +410,7 @@
     <t>xdg-</t>
   </si>
   <si>
-    <t>16 ч. 52 мин. 3 сек.</t>
+    <t>16 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -446,7 +446,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 14 сек.</t>
+    <t>16 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -464,7 +464,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>15 ч. 37 мин. 3 сек.</t>
+    <t>15 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -509,7 +509,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 35 сек.</t>
+    <t>15 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -518,7 +518,7 @@
     <t>aralov</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 50 сек.</t>
+    <t>15 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -527,7 +527,7 @@
     <t>serg3295</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 43 сек.</t>
+    <t>15 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -554,7 +554,7 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>14 ч. 46 мин. 7 сек.</t>
+    <t>14 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -572,7 +572,7 @@
     <t>R_E_S_E_T</t>
   </si>
   <si>
-    <t>14 ч. 37 мин. 4 сек.</t>
+    <t>14 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -581,7 +581,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>14 ч. 29 мин. 9 сек.</t>
+    <t>14 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -599,7 +599,7 @@
     <t>Abbill</t>
   </si>
   <si>
-    <t>14 ч. 18 мин. 5 сек.</t>
+    <t>14 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -608,7 +608,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>14 ч. 7 мин. 12 сек.</t>
+    <t>14 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -617,7 +617,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 44 сек.</t>
+    <t>14 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -626,7 +626,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 38 сек.</t>
+    <t>14 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -680,7 +680,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>13 ч. 11 мин. 1 сек.</t>
+    <t>13 ч. 11 мин. 01 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -689,7 +689,7 @@
     <t>andrew-fam</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 4 сек.</t>
+    <t>13 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -698,7 +698,7 @@
     <t>ogogo</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 51 сек.</t>
+    <t>13 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -707,7 +707,7 @@
     <t>h2-positiv</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 21 сек.</t>
+    <t>13 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -761,7 +761,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 16 сек.</t>
+    <t>12 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -824,7 +824,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>11 ч. 20 мин. 2 сек.</t>
+    <t>11 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -842,7 +842,7 @@
     <t>lehf</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 46 сек.</t>
+    <t>11 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -851,7 +851,7 @@
     <t>SlavaSlava</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 4 сек.</t>
+    <t>11 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>91</t>
@@ -860,7 +860,7 @@
     <t>anrn</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 24 сек.</t>
+    <t>11 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -869,7 +869,7 @@
     <t>ZILYA</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 26 сек.</t>
+    <t>11 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -932,7 +932,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 8 сек.</t>
+    <t>10 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>100</t>
@@ -941,7 +941,7 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 1 сек.</t>
+    <t>10 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>101</t>
@@ -959,7 +959,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>10 ч. 40 мин. 6 сек.</t>
+    <t>10 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -1013,7 +1013,7 @@
     <t>1hatedfate</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 13 сек.</t>
+    <t>10 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1022,7 +1022,7 @@
     <t>Leu</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 14 сек.</t>
+    <t>10 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>110</t>
@@ -1031,7 +1031,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 10 сек.</t>
+    <t>10 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>111–112</t>
@@ -1097,7 +1097,7 @@
     <t>schamuil</t>
   </si>
   <si>
-    <t>9 ч. 38 мин. 4 сек.</t>
+    <t>9 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1151,7 +1151,7 @@
     <t>SlooN777</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 58 сек.</t>
+    <t>9 ч. 06 мин. 58 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1160,7 +1160,7 @@
     <t>Лапаягуара</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 53 сек.</t>
+    <t>9 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>126</t>
@@ -1169,7 +1169,7 @@
     <t>Snash</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 27 сек.</t>
+    <t>9 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>127</t>
@@ -1178,7 +1178,7 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 45 сек.</t>
+    <t>9 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1187,7 +1187,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 34 сек.</t>
+    <t>9 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1205,7 +1205,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>8 ч. 58 мин. 4 сек.</t>
+    <t>8 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1232,7 +1232,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 5 сек.</t>
+    <t>8 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1385,7 +1385,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 9 сек.</t>
+    <t>8 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>151</t>
@@ -1394,7 +1394,7 @@
     <t>jodic2001</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 1 сек.</t>
+    <t>8 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1448,7 +1448,7 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>8 ч. 15 мин. 0 сек.</t>
+    <t>8 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1466,7 +1466,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 52 сек.</t>
+    <t>8 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1475,7 +1475,7 @@
     <t>Амирыч</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 26 сек.</t>
+    <t>8 ч. 09 мин. 26 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1484,7 +1484,7 @@
     <t>косогор_</t>
   </si>
   <si>
-    <t>8 ч. 7 мин. 14 сек.</t>
+    <t>8 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1493,7 +1493,7 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 50 сек.</t>
+    <t>8 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>163</t>
@@ -1502,7 +1502,7 @@
     <t>sad_robot</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 43 сек.</t>
+    <t>8 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1511,7 +1511,7 @@
     <t>valerii12345</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 43 сек.</t>
+    <t>8 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>165–166</t>
@@ -1520,7 +1520,7 @@
     <t>мураш</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 38 сек.</t>
+    <t>8 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>foggystyle</t>
@@ -1550,7 +1550,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 6 сек.</t>
+    <t>7 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1559,7 +1559,7 @@
     <t>младенец</t>
   </si>
   <si>
-    <t>7 ч. 54 мин. 1 сек.</t>
+    <t>7 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1577,7 +1577,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>7 ч. 51 мин. 4 сек.</t>
+    <t>7 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>173</t>
@@ -1604,7 +1604,7 @@
     <t>mmc</t>
   </si>
   <si>
-    <t>7 ч. 48 мин. 9 сек.</t>
+    <t>7 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1658,7 +1658,7 @@
     <t>denver14</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 8 сек.</t>
+    <t>7 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1703,7 +1703,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>7 ч. 21 мин. 1 сек.</t>
+    <t>7 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>187</t>
@@ -1721,7 +1721,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 7 сек.</t>
+    <t>7 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1748,7 +1748,7 @@
     <t>Alex123451</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 17 сек.</t>
+    <t>7 ч. 09 мин. 17 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1757,7 +1757,7 @@
     <t>Flinty518</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 26 сек.</t>
+    <t>7 ч. 08 мин. 26 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1766,7 +1766,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 11 сек.</t>
+    <t>7 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1775,7 +1775,7 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 1 сек.</t>
+    <t>7 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1784,7 +1784,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 52 сек.</t>
+    <t>7 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1793,7 +1793,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 39 сек.</t>
+    <t>7 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>197</t>
@@ -1802,7 +1802,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 35 сек.</t>
+    <t>7 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1850,7 +1850,7 @@
     <t>Хольман</t>
   </si>
   <si>
-    <t>6 ч. 52 мин. 3 сек.</t>
+    <t>6 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1886,7 +1886,7 @@
     <t>TypePracticeRu1</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 2 сек.</t>
+    <t>6 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -2039,7 +2039,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 8 сек.</t>
+    <t>6 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>225</t>
@@ -2165,7 +2165,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 59 сек.</t>
+    <t>6 ч. 09 мин. 59 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2174,7 +2174,7 @@
     <t>Batbara</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 53 сек.</t>
+    <t>6 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2183,7 +2183,7 @@
     <t>monetka</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 16 сек.</t>
+    <t>6 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2192,7 +2192,7 @@
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 8 сек.</t>
+    <t>6 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2264,7 +2264,7 @@
     <t>maestro2809</t>
   </si>
   <si>
-    <t>5 ч. 49 мин. 2 сек.</t>
+    <t>5 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2291,7 +2291,7 @@
     <t>E_l_e_n_a</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 4 сек.</t>
+    <t>5 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>253</t>
@@ -2318,7 +2318,7 @@
     <t>sergeyburda</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 7 сек.</t>
+    <t>5 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2327,7 +2327,7 @@
     <t>Impressive92</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 4 сек.</t>
+    <t>5 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2435,7 +2435,7 @@
     <t>никнэйм</t>
   </si>
   <si>
-    <t>5 ч. 32 мин. 7 сек.</t>
+    <t>5 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>269</t>
@@ -2453,7 +2453,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 2 сек.</t>
+    <t>5 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2498,7 +2498,7 @@
     <t>AlViNic</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 2 сек.</t>
+    <t>5 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2525,7 +2525,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 9 сек.</t>
+    <t>5 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2561,7 +2561,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>5 ч. 12 мин. 9 сек.</t>
+    <t>5 ч. 12 мин. 09 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2606,7 +2606,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 39 сек.</t>
+    <t>5 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>288</t>
@@ -2615,7 +2615,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 5 сек.</t>
+    <t>5 ч. 08 мин. 05 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2624,7 +2624,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2633,7 +2633,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 22 сек.</t>
+    <t>5 ч. 06 мин. 22 сек.</t>
   </si>
   <si>
     <t>291</t>
@@ -2642,7 +2642,7 @@
     <t>natalishka</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 21 сек.</t>
+    <t>5 ч. 06 мин. 21 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2651,7 +2651,7 @@
     <t>EthelHallow</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 16 сек.</t>
+    <t>5 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2660,7 +2660,7 @@
     <t>RusVodka777</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 11 сек.</t>
+    <t>5 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2669,7 +2669,7 @@
     <t>QuetzalcoatI</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 43 сек.</t>
+    <t>5 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>295</t>
@@ -2678,7 +2678,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 31 сек.</t>
+    <t>5 ч. 01 мин. 31 сек.</t>
   </si>
   <si>
     <t>296</t>
@@ -2687,7 +2687,7 @@
     <t>Easy88</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 30 сек.</t>
+    <t>5 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>297</t>
@@ -2696,7 +2696,7 @@
     <t>БоряБ</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 37 сек.</t>
+    <t>5 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>298</t>
@@ -2867,7 +2867,7 @@
     <t>shishini38</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 9 сек.</t>
+    <t>4 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>317</t>
@@ -3065,7 +3065,7 @@
     <t>vcvlsdfkv</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 9 сек.</t>
+    <t>4 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>339</t>
@@ -3083,7 +3083,7 @@
     <t>pairbit</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 2 сек.</t>
+    <t>4 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>341</t>
@@ -3092,7 +3092,7 @@
     <t>4iterok007</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 3 сек.</t>
+    <t>4 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>342</t>
@@ -3110,7 +3110,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 1 сек.</t>
+    <t>4 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3137,7 +3137,7 @@
     <t>AlexFer</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 2 сек.</t>
+    <t>4 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>347</t>
@@ -3200,7 +3200,7 @@
     <t>segalize</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 3 сек.</t>
+    <t>4 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3209,7 +3209,7 @@
     <t>gor2810</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 4 сек.</t>
+    <t>4 ч. 10 мин. 04 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3218,7 +3218,7 @@
     <t>Alex1980</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 42 сек.</t>
+    <t>4 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3227,7 +3227,7 @@
     <t>Днище_грЕбаное</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 28 сек.</t>
+    <t>4 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>357</t>
@@ -3236,7 +3236,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 25 сек.</t>
+    <t>4 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3245,7 +3245,7 @@
     <t>Tenguy</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 23 сек.</t>
+    <t>4 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>359</t>
@@ -3254,7 +3254,7 @@
     <t>sega1975</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 47 сек.</t>
+    <t>4 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>360</t>
@@ -3263,7 +3263,7 @@
     <t>classifiedman</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 23 сек.</t>
+    <t>4 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3272,7 +3272,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 14 сек.</t>
+    <t>4 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3281,7 +3281,7 @@
     <t>reemaind</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 43 сек.</t>
+    <t>4 ч. 05 мин. 43 сек.</t>
   </si>
   <si>
     <t>363</t>
@@ -3290,7 +3290,7 @@
     <t>borzonhiggs</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 3 сек.</t>
+    <t>4 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3299,7 +3299,7 @@
     <t>Гравий</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 50 сек.</t>
+    <t>4 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3308,7 +3308,7 @@
     <t>pijamka</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 49 сек.</t>
+    <t>4 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>366</t>
@@ -3317,7 +3317,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 22 сек.</t>
+    <t>4 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3326,7 +3326,7 @@
     <t>1977</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 57 сек.</t>
+    <t>4 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>368</t>
@@ -3335,7 +3335,7 @@
     <t>lokidos</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 9 сек.</t>
+    <t>4 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>369</t>
@@ -3344,7 +3344,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 59 сек.</t>
+    <t>4 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>370</t>
@@ -3353,7 +3353,7 @@
     <t>Marrog</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 19 сек.</t>
+    <t>4 ч. 01 мин. 19 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -3362,7 +3362,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 16 сек.</t>
+    <t>4 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>372</t>
@@ -3371,7 +3371,7 @@
     <t>ChisloPi</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 53 сек.</t>
+    <t>4 ч. 00 мин. 53 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3380,7 +3380,7 @@
     <t>patas_arriba</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 40 сек.</t>
+    <t>4 ч. 00 мин. 40 сек.</t>
   </si>
   <si>
     <t>374</t>
@@ -3389,7 +3389,7 @@
     <t>Ciaconne</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3398,7 +3398,7 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 7 сек.</t>
+    <t>4 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>376</t>
@@ -3416,7 +3416,7 @@
     <t>buzzy</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 5 сек.</t>
+    <t>3 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -3488,7 +3488,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 5 сек.</t>
+    <t>3 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>386</t>
@@ -3569,7 +3569,7 @@
     <t>antoshagagarin1</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 3 сек.</t>
+    <t>3 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>395</t>
@@ -3578,7 +3578,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 2 сек.</t>
+    <t>3 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>396–397</t>
@@ -3608,7 +3608,7 @@
     <t>Borkli</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 2 сек.</t>
+    <t>3 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>400</t>
@@ -3653,7 +3653,7 @@
     <t>rafaelll</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 5 сек.</t>
+    <t>3 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>405</t>
@@ -3698,7 +3698,7 @@
     <t>ТОМА-АТОМНАЯ</t>
   </si>
   <si>
-    <t>3 ч. 36 мин. 6 сек.</t>
+    <t>3 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>410</t>
@@ -3734,7 +3734,7 @@
     <t>Opiyai</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 3 сек.</t>
+    <t>3 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>414</t>
@@ -3770,7 +3770,7 @@
     <t>fingeroo</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 8 сек.</t>
+    <t>3 ч. 33 мин. 08 сек.</t>
   </si>
   <si>
     <t>418</t>
@@ -3779,7 +3779,7 @@
     <t>Zheka169</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 3 сек.</t>
+    <t>3 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>419</t>
@@ -3806,7 +3806,7 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>3 ч. 32 мин. 8 сек.</t>
+    <t>3 ч. 32 мин. 08 сек.</t>
   </si>
   <si>
     <t>422</t>
@@ -3842,7 +3842,7 @@
     <t>vic0nt</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 6 сек.</t>
+    <t>3 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>426</t>
@@ -3869,7 +3869,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 9 сек.</t>
+    <t>3 ч. 28 мин. 09 сек.</t>
   </si>
   <si>
     <t>429</t>
@@ -3878,7 +3878,7 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 2 сек.</t>
+    <t>3 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>430</t>
@@ -3896,7 +3896,7 @@
     <t>Только_Киев</t>
   </si>
   <si>
-    <t>3 ч. 27 мин. 5 сек.</t>
+    <t>3 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>432</t>
@@ -3968,7 +3968,7 @@
     <t>ЦАРЬ</t>
   </si>
   <si>
-    <t>3 ч. 22 мин. 3 сек.</t>
+    <t>3 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>440</t>
@@ -3986,7 +3986,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 9 сек.</t>
+    <t>3 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>442</t>
@@ -4112,7 +4112,7 @@
     <t>Leha-88-88</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 1 сек.</t>
+    <t>3 ч. 15 мин. 01 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -4220,7 +4220,7 @@
     <t>Unwear</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 37 сек.</t>
+    <t>3 ч. 09 мин. 37 сек.</t>
   </si>
   <si>
     <t>468</t>
@@ -4229,7 +4229,7 @@
     <t>Akmat</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 49 сек.</t>
+    <t>3 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>469</t>
@@ -4238,7 +4238,7 @@
     <t>fdsken</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 57 сек.</t>
+    <t>3 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4247,7 +4247,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 50 сек.</t>
+    <t>3 ч. 07 мин. 50 сек.</t>
   </si>
   <si>
     <t>471</t>
@@ -4256,7 +4256,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 53 сек.</t>
+    <t>3 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>472</t>
@@ -4265,7 +4265,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 36 сек.</t>
+    <t>3 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>473</t>
@@ -4274,7 +4274,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 48 сек.</t>
+    <t>3 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -4283,7 +4283,7 @@
     <t>trhlAHAHsfjJ</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 3 сек.</t>
+    <t>3 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>475</t>
@@ -4292,7 +4292,7 @@
     <t>Dj_Hard</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 44 сек.</t>
+    <t>3 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -4301,7 +4301,7 @@
     <t>_amateur</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 8 сек.</t>
+    <t>3 ч. 03 мин. 08 сек.</t>
   </si>
   <si>
     <t>477–478</t>
@@ -4310,7 +4310,7 @@
     <t>_КЕНТ</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 0 сек.</t>
+    <t>3 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>Gosick</t>
@@ -4322,7 +4322,7 @@
     <t>ddenis</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 30 сек.</t>
+    <t>3 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -4331,7 +4331,7 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 8 сек.</t>
+    <t>3 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4340,7 +4340,7 @@
     <t>beniscook</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 42 сек.</t>
+    <t>3 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>482</t>
@@ -4349,7 +4349,7 @@
     <t>akuna1</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 25 сек.</t>
+    <t>3 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4397,7 +4397,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 0 сек.</t>
+    <t>2 ч. 58 мин. 00 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -4460,7 +4460,7 @@
     <t>Serhio97</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 6 сек.</t>
+    <t>2 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4487,7 +4487,7 @@
     <t>Trantar</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 2 сек.</t>
+    <t>2 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>499</t>
@@ -4586,7 +4586,7 @@
     <t>-Vovik-</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 8 сек.</t>
+    <t>2 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>510</t>
@@ -4649,7 +4649,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 9 сек.</t>
+    <t>2 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>517</t>
@@ -4676,7 +4676,7 @@
     <t>gornostay</t>
   </si>
   <si>
-    <t>2 ч. 45 мин. 6 сек.</t>
+    <t>2 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>520</t>
@@ -4910,7 +4910,7 @@
     <t>мимими</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 3 сек.</t>
+    <t>2 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>546</t>
@@ -5000,7 +5000,7 @@
     <t>anuni</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 3 сек.</t>
+    <t>2 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>556</t>
@@ -5099,7 +5099,7 @@
     <t>Locust</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>567</t>
@@ -5117,7 +5117,7 @@
     <t>flake77</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 4 сек.</t>
+    <t>2 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>569</t>
@@ -5237,7 +5237,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 4 сек.</t>
+    <t>2 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>583</t>
@@ -5246,7 +5246,7 @@
     <t>ПИТ</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 0 сек.</t>
+    <t>2 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>584</t>
@@ -5372,7 +5372,7 @@
     <t>uniko</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 7 сек.</t>
+    <t>2 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -5381,7 +5381,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 1 сек.</t>
+    <t>2 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>599</t>
@@ -5390,7 +5390,7 @@
     <t>НЮШКА-ХРЮШКА</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 58 сек.</t>
+    <t>2 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>600</t>
@@ -5399,7 +5399,7 @@
     <t>pa4loed</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 29 сек.</t>
+    <t>2 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>601</t>
@@ -5408,7 +5408,7 @@
     <t>ГДВ</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 13 сек.</t>
+    <t>2 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>602</t>
@@ -5417,7 +5417,7 @@
     <t>sorax</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 9 сек.</t>
+    <t>2 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>603</t>
@@ -5426,7 +5426,7 @@
     <t>neus</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 50 сек.</t>
+    <t>2 ч. 07 мин. 50 сек.</t>
   </si>
   <si>
     <t>604</t>
@@ -5435,7 +5435,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 45 сек.</t>
+    <t>2 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>605</t>
@@ -5444,7 +5444,7 @@
     <t>breaks</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 53 сек.</t>
+    <t>2 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>606</t>
@@ -5453,7 +5453,7 @@
     <t>IntusNox</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 41 сек.</t>
+    <t>2 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>607</t>
@@ -5462,7 +5462,7 @@
     <t>Chuchpek</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 21 сек.</t>
+    <t>2 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>608</t>
@@ -5471,7 +5471,7 @@
     <t>BlaZe_RoX</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 47 сек.</t>
+    <t>2 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>609</t>
@@ -5480,7 +5480,7 @@
     <t>Arishkou</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>610</t>
@@ -5489,7 +5489,7 @@
     <t>Юрикор_Мишка</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 8 сек.</t>
+    <t>2 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>611</t>
@@ -5498,7 +5498,7 @@
     <t>a_shir</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 33 сек.</t>
+    <t>2 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>612</t>
@@ -5507,7 +5507,7 @@
     <t>Geistero</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 29 сек.</t>
+    <t>2 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>613</t>
@@ -5516,7 +5516,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 5 сек.</t>
+    <t>2 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>614</t>
@@ -5525,7 +5525,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 0 сек.</t>
+    <t>2 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>615</t>
@@ -5534,7 +5534,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 43 сек.</t>
+    <t>2 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>616</t>
@@ -5543,7 +5543,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 22 сек.</t>
+    <t>2 ч. 00 мин. 22 сек.</t>
   </si>
   <si>
     <t>617</t>
@@ -5696,7 +5696,7 @@
     <t>Infinit</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 9 сек.</t>
+    <t>1 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>634</t>
@@ -5777,7 +5777,7 @@
     <t>DeniV</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 2 сек.</t>
+    <t>1 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>643</t>
@@ -5795,7 +5795,7 @@
     <t>Uncle_Sam</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 3 сек.</t>
+    <t>1 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>645</t>
@@ -5822,7 +5822,7 @@
     <t>EVERGLOW</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 55 сек.</t>
+    <t>1 ч. 03 мин. 55 сек.</t>
   </si>
 </sst>
 </file>
